--- a/과제/dip-2차 과제 공고/최영환/최영환.xlsx
+++ b/과제/dip-2차 과제 공고/최영환/최영환.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C901512A-8784-4561-AEE0-8D317AC4485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46473EDA-89E7-46EC-8DC0-75482D92250E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31020" yWindow="390" windowWidth="23895" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="648" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="평가표" sheetId="1" r:id="rId1"/>
@@ -612,20 +612,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="72.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="72.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="71.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -663,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -681,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -717,7 +717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -781,7 +781,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -792,12 +792,12 @@
         <v>20</v>
       </c>
       <c r="D10" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -861,7 +861,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
         <v>24</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="D15" s="12">
         <f t="shared" ref="D15:E15" si="0">SUM(D2:D14)</f>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E15" s="12">
         <f t="shared" si="0"/>
@@ -880,7 +880,7 @@
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -896,7 +896,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -907,12 +907,12 @@
         <v>100</v>
       </c>
       <c r="D17" s="18">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
       <c r="B18" s="23" t="s">
         <v>25</v>
@@ -923,7 +923,7 @@
       </c>
       <c r="D18" s="24">
         <f t="shared" ref="D18:E18" si="1">SUM(D15:D17)</f>
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E18" s="24">
         <f t="shared" si="1"/>
